--- a/Multi Tree Analysis.xlsx
+++ b/Multi Tree Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yre03/Dev/Saxion/TreeTerrainAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8666905-BCF8-A642-AABF-1C10115D7D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891DF3C3-BC6F-F044-BFC5-E3AE611199D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18720" firstSheet="1" activeTab="5" xr2:uid="{4F955FF6-BBB8-2C44-BD70-9DEBB005101E}"/>
   </bookViews>
